--- a/5) Март/912/912 Разработка моб приложений_март.xlsx
+++ b/5) Март/912/912 Разработка моб приложений_март.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\5) Март\912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53328DD4-7BD9-4C5A-BD9E-2791DEE54D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E1BE9E-12E3-4734-805D-4DCEA77D06A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7335" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="47">
   <si>
     <t>ФИО</t>
   </si>
@@ -136,6 +136,36 @@
   </si>
   <si>
     <t>е</t>
+  </si>
+  <si>
+    <t>Лекция 3.5</t>
+  </si>
+  <si>
+    <t>Лекция 3.6</t>
+  </si>
+  <si>
+    <t>Лекция 3.7</t>
+  </si>
+  <si>
+    <t>Лекция 3.8</t>
+  </si>
+  <si>
+    <t>Лекция 3.9</t>
+  </si>
+  <si>
+    <t>Лекция 3.10</t>
+  </si>
+  <si>
+    <t>Практика 3.14</t>
+  </si>
+  <si>
+    <t>Практика 3.15</t>
+  </si>
+  <si>
+    <t>Практика 3.16</t>
+  </si>
+  <si>
+    <t>Практика 3.17</t>
   </si>
 </sst>
 </file>
@@ -236,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,8 +278,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AE29"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,11 +573,11 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="15" width="13.7109375" customWidth="1"/>
@@ -561,21 +589,22 @@
     <col min="21" max="21" width="13.5703125" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" customWidth="1"/>
     <col min="23" max="23" width="15.140625" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
     <col min="25" max="25" width="14.140625" customWidth="1"/>
     <col min="26" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" customWidth="1"/>
-    <col min="30" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" customWidth="1"/>
+    <col min="31" max="31" width="15.7109375" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45717</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>45717</v>
       </c>
       <c r="D1" s="1">
@@ -670,14 +699,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
@@ -712,25 +740,21 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="5"/>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
       <c r="N3" t="s">
         <v>34</v>
       </c>
@@ -757,10 +781,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
@@ -799,14 +822,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="H5" t="s">
@@ -841,14 +863,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
@@ -883,14 +904,13 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
@@ -925,14 +945,13 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
@@ -967,14 +986,13 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
@@ -1009,25 +1027,21 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="5"/>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
       <c r="N10" t="s">
         <v>34</v>
       </c>
@@ -1054,25 +1068,21 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="5"/>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
       <c r="N11" t="s">
         <v>35</v>
       </c>
@@ -1099,25 +1109,21 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="5"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
       <c r="N12" t="s">
         <v>34</v>
       </c>
@@ -1144,25 +1150,21 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="5"/>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
       <c r="N13" t="s">
         <v>35</v>
       </c>
@@ -1189,25 +1191,21 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="5"/>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
       <c r="N14" t="s">
         <v>35</v>
       </c>
@@ -1234,25 +1232,21 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="5"/>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
       <c r="N15" t="s">
         <v>34</v>
       </c>
@@ -1279,25 +1273,21 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="5"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
       <c r="N16" t="s">
         <v>35</v>
       </c>
@@ -1324,25 +1314,21 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="5"/>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
       <c r="N17" t="s">
         <v>35</v>
       </c>
@@ -1369,25 +1355,21 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="5"/>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
       <c r="N18" t="s">
         <v>35</v>
       </c>
@@ -1414,25 +1396,21 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="5"/>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
       <c r="N19" t="s">
         <v>35</v>
       </c>
@@ -1459,25 +1437,21 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="5"/>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
       <c r="N20" t="s">
         <v>34</v>
       </c>
@@ -1504,25 +1478,21 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="5"/>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
       <c r="N21" t="s">
         <v>34</v>
       </c>
@@ -1549,25 +1519,21 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="5"/>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
       <c r="N22" t="s">
         <v>35</v>
       </c>
@@ -1594,25 +1560,21 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="5"/>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
       <c r="N23" t="s">
         <v>35</v>
       </c>
@@ -1639,25 +1601,21 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="5"/>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
       <c r="N24" t="s">
         <v>34</v>
       </c>
@@ -1684,25 +1642,21 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="5"/>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
       <c r="N25" t="s">
         <v>34</v>
       </c>
@@ -1729,25 +1683,21 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="5"/>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>35</v>
+      </c>
       <c r="N26" t="s">
         <v>35</v>
       </c>
@@ -1774,25 +1724,21 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="5"/>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
       <c r="N27" t="s">
         <v>34</v>
       </c>
@@ -1819,25 +1765,21 @@
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="5"/>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
       <c r="N28" t="s">
         <v>35</v>
       </c>
@@ -1864,25 +1806,21 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="5"/>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
       <c r="N29" t="s">
         <v>35</v>
       </c>
@@ -1964,6 +1902,99 @@
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" t="s">
+        <v>40</v>
+      </c>
+      <c r="V31" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" t="s">
+        <v>40</v>
+      </c>
+      <c r="X31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.25">
